--- a/기획/레벨링 기획/라운드 별 유닛 배치.xlsx
+++ b/기획/레벨링 기획/라운드 별 유닛 배치.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\UnityProject\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\1team_UnityProject\기획\레벨링 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F08F3A3-09C9-4382-A9EC-EE32008D7537}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DFF2B4-0C4F-4ABD-9A8D-CB617ED4D399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EADA1E53-4894-44EC-89AD-BE10D51DBBEB}"/>
+    <workbookView xWindow="8460" yWindow="180" windowWidth="20340" windowHeight="15420" xr2:uid="{EADA1E53-4894-44EC-89AD-BE10D51DBBEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>0,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,35 +147,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  n= ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  x = grid X 좌표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  z = grid Z 좌표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x,z) 표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>aiOpponent.AddEnemy</t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
         <color rgb="FFFFFF00"/>
-        <rFont val="나눔스퀘어_ac Light"/>
+        <rFont val="나눔스퀘어_ac"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>(n,x,z)</t>
+      <t>(n,x,z,p)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  n= ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  x = grid X 좌표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  z = grid Z 좌표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(x,z) 표</t>
+    <t>플레이어 진영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  p = 공&amp;체 적용비율(%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ex)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">기본 유닛은 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>p=100</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">난이도 조절을 위해 2배 강한 유닛을 만들고 싶다면 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="나눔스퀘어_ac"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>p=200</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50%의 능력치를 부여하려면 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p=50</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,7 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="나눔스퀘어_ac Light"/>
       <family val="3"/>
@@ -242,7 +311,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FFFFFF00"/>
-      <name val="나눔스퀘어_ac Light"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="나눔스퀘어_ac"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -250,17 +326,38 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="나눔스퀘어_ac Light"/>
+      <name val="나눔스퀘어_ac"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="나눔스퀘어_ac Light"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어_ac"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -625,13 +722,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,31 +811,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,38 +826,77 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,255 +1212,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0590C83-32BA-4DA0-859E-01DCAE2B01B9}">
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" s="27" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:8" s="19" customFormat="1"/>
+    <row r="2" spans="2:8" s="19" customFormat="1" ht="20.25">
+      <c r="B2" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" s="19" customFormat="1"/>
+    <row r="4" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="5" spans="2:8" ht="24.95" customHeight="1" thickTop="1">
+      <c r="B5" s="30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:8" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="2:8" ht="24.95" customHeight="1">
+      <c r="B7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="2:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="2:8" ht="24.95" customHeight="1" thickBot="1">
+      <c r="B8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="2:8" ht="17.25" thickTop="1"/>
+    <row r="10" spans="2:8" ht="30" customHeight="1" thickBot="1">
+      <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="38"/>
-    </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="2:8" ht="30" customHeight="1">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="2:8" ht="30" customHeight="1">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
+    <row r="14" spans="2:8" ht="30" customHeight="1" thickBot="1">
+      <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H14" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+    </row>
+    <row r="17" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="18" spans="2:6" ht="18" thickBot="1">
+      <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="23"/>
-    </row>
-    <row r="16" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="2:6" ht="18" customHeight="1">
+      <c r="B19" s="16">
         <v>9</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25">
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="F19" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="18" customHeight="1">
+      <c r="B20" s="17">
         <v>10</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="25">
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="F20" s="42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18" customHeight="1">
+      <c r="B21" s="17">
         <v>11</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25">
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="F21" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="18" customHeight="1">
+      <c r="B22" s="17">
         <v>12</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25">
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="18" customHeight="1">
+      <c r="B23" s="17">
         <v>13</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25">
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="2:6" ht="18" customHeight="1">
+      <c r="B24" s="17">
         <v>14</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25">
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="2:6" ht="18" customHeight="1">
+      <c r="B25" s="17">
         <v>15</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25">
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="2:6" ht="18" customHeight="1">
+      <c r="B26" s="17">
         <v>16</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25">
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="2:6" ht="18" customHeight="1">
+      <c r="B27" s="17">
         <v>17</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25">
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="2:6" ht="18" customHeight="1">
+      <c r="B28" s="17">
         <v>18</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25">
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="2:6" ht="18" customHeight="1">
+      <c r="B29" s="17">
         <v>19</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="2:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="26">
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="2:6" ht="18" customHeight="1" thickBot="1">
+      <c r="B30" s="18">
         <v>20</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C27:D27"/>
+  <mergeCells count="19">
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
